--- a/201807迪士尼官網代購.xlsx
+++ b/201807迪士尼官網代購.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>票卡夾</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>小孩子包巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小美人魚雨衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇奇蒂蒂好收納雨衣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -910,6 +918,44 @@
       <c r="E20">
         <f>D20+50</f>
         <v>616.29499999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>4212</v>
+      </c>
+      <c r="C21">
+        <v>2948</v>
+      </c>
+      <c r="D21">
+        <f>C21*D1</f>
+        <v>840.18</v>
+      </c>
+      <c r="E21">
+        <f>D21+50</f>
+        <v>890.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>2700</v>
+      </c>
+      <c r="C22">
+        <v>2160</v>
+      </c>
+      <c r="D22">
+        <f>C22*D1</f>
+        <v>615.59999999999991</v>
+      </c>
+      <c r="E22">
+        <f>D22+50</f>
+        <v>665.59999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/201807迪士尼官網代購.xlsx
+++ b/201807迪士尼官網代購.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14400" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="迪士尼" sheetId="1" r:id="rId1"/>
     <sheet name="兩個540" sheetId="2" r:id="rId2"/>
     <sheet name="原價區" sheetId="3" r:id="rId3"/>
+    <sheet name="下訂訂單" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>票卡夾</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,15 +111,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小美人魚雨衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇奇蒂蒂好收納雨衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone X 殼(阿拉丁公主,愛麗絲,美女與野獸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone X 殼(小美人魚,長髮公主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>販售價格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11*9.5*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15*21.5*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會動的吊飾娃娃(雪寶 瑪麗貓 愛麗絲貓 唐老鴨  杯麵)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯麵  11.5.11.5.2
+瑪麗貓  9.5*8.8*13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小美人魚扁的化妝包(blue)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*13*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小美人魚扁的衛生紙包(pink)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賺頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林小靜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一包貼紙(tsum 小美人魚 toys)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂購人名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美女與野獸杯子小錢包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品原價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品售價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購買人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購買數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林小靜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂購標準門檻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下單日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S UFUFY娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪奇緣小孩包巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小孩子包巾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小美人魚雨衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇奇蒂蒂好收納雨衣</t>
+    <t>小美人魚小孩包巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114*57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑪麗貓小孩包巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高105-115
+胸圍53-59
+腰圍47-53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米奇變色雨衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總金額(日圓)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前訂購金額</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,6 +270,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -169,12 +317,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,9 +353,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -206,6 +381,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -531,437 +711,874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="E1" s="3">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E1">
+      <c r="F1" s="3">
         <v>50</v>
       </c>
-      <c r="F1">
+      <c r="G1" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>540</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>270</v>
       </c>
-      <c r="D2">
-        <f>C2*D1</f>
+      <c r="E2">
+        <f>D2*E1</f>
         <v>76.949999999999989</v>
       </c>
-      <c r="E2">
-        <f>D2+E1</f>
+      <c r="F2">
+        <f>E2+F1</f>
         <v>126.94999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" s="5">
+        <f>D2*H1</f>
+        <v>75.600000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>540</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>135</v>
       </c>
-      <c r="D3">
-        <f>C3*D1</f>
+      <c r="E3">
+        <f>D3*E1</f>
         <v>38.474999999999994</v>
       </c>
-      <c r="E3">
-        <f>D3+E1</f>
+      <c r="F3">
+        <f>E3+F1</f>
         <v>88.474999999999994</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="5">
+        <f>D3*H1</f>
+        <v>37.800000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>324</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>162</v>
       </c>
-      <c r="D4">
-        <f>C4*D1</f>
+      <c r="E4">
+        <f>D4*E1</f>
         <v>46.169999999999995</v>
       </c>
-      <c r="E4">
-        <f>D4+E1</f>
+      <c r="F4">
+        <f>E4+F1</f>
         <v>96.169999999999987</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" s="5">
+        <f>D4*H1</f>
+        <v>45.360000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>432</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>216</v>
       </c>
-      <c r="D5">
-        <f>C5*D1</f>
+      <c r="E5">
+        <f>D5*E1</f>
         <v>61.559999999999995</v>
       </c>
-      <c r="E5">
-        <f>D5+E1</f>
+      <c r="F5">
+        <f>E5+F1</f>
         <v>111.56</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" s="5">
+        <f>D5*H1</f>
+        <v>60.480000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>432</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>216</v>
       </c>
-      <c r="D6">
-        <f>C6*D1</f>
+      <c r="E6">
+        <f>D6*E1</f>
         <v>61.559999999999995</v>
       </c>
-      <c r="F6">
-        <f>D6+F1</f>
+      <c r="G6">
+        <f>E6+G1</f>
         <v>91.56</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" s="5">
+        <f>D6*H1</f>
+        <v>60.480000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>864</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>216</v>
       </c>
-      <c r="D7">
-        <f>C7*D1</f>
+      <c r="E7">
+        <f>D7*E1</f>
         <v>61.559999999999995</v>
       </c>
-      <c r="E7">
-        <f>D7+E1</f>
+      <c r="F7">
+        <f>E7+F1</f>
         <v>111.56</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" s="5">
+        <f>D7*H1</f>
+        <v>60.480000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>540</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>270</v>
       </c>
-      <c r="D8">
-        <f>C8*D1</f>
+      <c r="E8">
+        <f>D8*E1</f>
         <v>76.949999999999989</v>
       </c>
-      <c r="E8">
-        <f>D8+E1</f>
+      <c r="F8">
+        <f>E8+F1</f>
         <v>126.94999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" s="5">
+        <f>D8*H1</f>
+        <v>75.600000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1728</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1209</v>
       </c>
-      <c r="D9">
-        <f>C9*D1</f>
+      <c r="E9">
+        <f>D9*E1</f>
         <v>344.565</v>
       </c>
-      <c r="E9">
-        <f>D9+E1</f>
+      <c r="F9">
+        <f>E9+F1</f>
         <v>394.565</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9" s="5">
+        <f>D9*H1</f>
+        <v>338.52000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2160</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1728</v>
       </c>
-      <c r="D10">
-        <f>C10*D1</f>
+      <c r="E10">
+        <f>D10*E1</f>
         <v>492.47999999999996</v>
       </c>
-      <c r="E10">
-        <f>D10+E1</f>
+      <c r="F10">
+        <f>E10+F1</f>
         <v>542.48</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="H10" s="5">
+        <f>D10*H1</f>
+        <v>483.84000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>864</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>432</v>
       </c>
-      <c r="D11">
-        <f>C11*D1</f>
+      <c r="E11">
+        <f>D11*E1</f>
         <v>123.11999999999999</v>
       </c>
-      <c r="E11">
-        <f>D11+E1</f>
+      <c r="F11">
+        <f>E11+F1</f>
         <v>173.12</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11" s="5">
+        <f>D11*H1</f>
+        <v>120.96000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>1080</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>540</v>
       </c>
-      <c r="D12">
-        <f>C12*D1</f>
+      <c r="E12">
+        <f>D12*E1</f>
         <v>153.89999999999998</v>
       </c>
-      <c r="E12">
-        <f>D12+E1</f>
+      <c r="F12">
+        <f>E12+F1</f>
         <v>203.89999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H12" s="5">
+        <f>D12*H1</f>
+        <v>151.20000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>3240</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2592</v>
       </c>
-      <c r="D13">
-        <f>C13*D1</f>
+      <c r="E13">
+        <f>D13*E1</f>
         <v>738.71999999999991</v>
       </c>
-      <c r="E13">
-        <f>D13+E1</f>
+      <c r="F13">
+        <f>E13+F1</f>
         <v>788.71999999999991</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13" s="5">
+        <f>D13*H1</f>
+        <v>725.7600000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>1728</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>864</v>
       </c>
-      <c r="D14">
-        <f>C14*D1</f>
+      <c r="E14">
+        <f>D14*E1</f>
         <v>246.23999999999998</v>
       </c>
-      <c r="E14">
-        <f>D14+E1</f>
+      <c r="F14">
+        <f>E14+F1</f>
         <v>296.24</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14" s="5">
+        <f>D14*H1</f>
+        <v>241.92000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>540</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>432</v>
       </c>
-      <c r="D15">
-        <f>C15*D1</f>
+      <c r="E15">
+        <f>D15*E1</f>
         <v>123.11999999999999</v>
       </c>
-      <c r="E15">
-        <f>D15+E1</f>
+      <c r="F15">
+        <f>E15+F1</f>
         <v>173.12</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15" s="5">
+        <f>D15*H1</f>
+        <v>120.96000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>1404</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1123</v>
       </c>
-      <c r="D16">
-        <f>C16*D1</f>
+      <c r="E16">
+        <f>D16*E1</f>
         <v>320.05499999999995</v>
       </c>
-      <c r="F16">
-        <f>D16+F1</f>
+      <c r="G16">
+        <f>E16+G1</f>
         <v>350.05499999999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16" s="5">
+        <f>D16*H1</f>
+        <v>314.44000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>2484</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1242</v>
       </c>
-      <c r="D17">
-        <f>C17*D1</f>
+      <c r="E17">
+        <f>D17*E1</f>
         <v>353.96999999999997</v>
       </c>
-      <c r="E17">
-        <f>D18+E1</f>
-        <v>280.85000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <f>E17+F1</f>
+        <v>403.96999999999997</v>
+      </c>
+      <c r="H17" s="5">
+        <f>D17*H1</f>
+        <v>347.76000000000005</v>
+      </c>
+      <c r="I17">
+        <v>430</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="5">
+        <f>I17-H17</f>
+        <v>82.239999999999952</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1620</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>810</v>
       </c>
-      <c r="D18">
-        <f>C18*D1</f>
+      <c r="E18">
+        <f>D18*E1</f>
         <v>230.85</v>
       </c>
-      <c r="E18">
-        <f>D18+E2</f>
+      <c r="F18">
+        <f>E18+F2</f>
         <v>357.79999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="H18" s="5">
+        <f>D18*H1</f>
+        <v>226.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>810</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>405</v>
       </c>
-      <c r="D19">
-        <f>C19*D1</f>
+      <c r="E19">
+        <f>D19*E1</f>
         <v>115.425</v>
       </c>
-      <c r="E19">
-        <f>D19+50</f>
+      <c r="F19">
+        <f>E19+50</f>
         <v>165.42500000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19" s="5">
+        <f>D19*H1</f>
+        <v>113.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>2484</v>
+      </c>
+      <c r="D20">
+        <v>1987</v>
+      </c>
+      <c r="E20">
+        <f>D20*E1</f>
+        <v>566.29499999999996</v>
+      </c>
+      <c r="F20">
+        <f>E20+50</f>
+        <v>616.29499999999996</v>
+      </c>
+      <c r="H20" s="5">
+        <f>D20*H1</f>
+        <v>556.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="C21">
+        <v>4212</v>
+      </c>
+      <c r="D21">
+        <v>2948</v>
+      </c>
+      <c r="E21">
+        <f>D21*E1</f>
+        <v>840.18</v>
+      </c>
+      <c r="F21">
+        <f>E21+50</f>
+        <v>890.18</v>
+      </c>
+      <c r="H21" s="5">
+        <f>D21*H1</f>
+        <v>825.44</v>
+      </c>
+      <c r="I21">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>2700</v>
+      </c>
+      <c r="D22">
+        <v>2160</v>
+      </c>
+      <c r="E22">
+        <f>D22*E1</f>
+        <v>615.59999999999991</v>
+      </c>
+      <c r="F22">
+        <f>E22+F1</f>
+        <v>665.59999999999991</v>
+      </c>
+      <c r="H22" s="5">
+        <f>D22*H1</f>
+        <v>604.80000000000007</v>
+      </c>
+      <c r="I22">
+        <v>690</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="5">
+        <f>I22-H22</f>
+        <v>85.199999999999932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>3132</v>
+      </c>
+      <c r="D23">
+        <v>2505</v>
+      </c>
+      <c r="E23">
+        <f>D23*E1</f>
+        <v>713.92499999999995</v>
+      </c>
+      <c r="F23">
+        <f>E23+F1</f>
+        <v>763.92499999999995</v>
+      </c>
+      <c r="H23" s="5">
+        <f>D23*H1</f>
+        <v>701.40000000000009</v>
+      </c>
+      <c r="I23">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24">
+        <v>3132</v>
+      </c>
+      <c r="D24">
+        <v>1556</v>
+      </c>
+      <c r="E24">
+        <f>D24*E1</f>
+        <v>443.46</v>
+      </c>
+      <c r="F24">
+        <f>E24+50</f>
+        <v>493.46</v>
+      </c>
+      <c r="H24" s="5">
+        <f>D24*H1</f>
+        <v>435.68000000000006</v>
+      </c>
+      <c r="I24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>432</v>
+      </c>
+      <c r="D25">
+        <v>216</v>
+      </c>
+      <c r="E25">
+        <f>D25*E1</f>
+        <v>61.559999999999995</v>
+      </c>
+      <c r="G25">
+        <f>E25+G1</f>
+        <v>91.56</v>
+      </c>
+      <c r="H25" s="5">
+        <f>D25*H1</f>
+        <v>60.480000000000004</v>
+      </c>
+      <c r="I25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>648</v>
+      </c>
+      <c r="D26">
+        <v>162</v>
+      </c>
+      <c r="E26">
+        <f>D26*E1</f>
+        <v>46.169999999999995</v>
+      </c>
+      <c r="F26">
+        <f>E26+50</f>
+        <v>96.169999999999987</v>
+      </c>
+      <c r="H26" s="5">
+        <f>D26*H1</f>
+        <v>45.360000000000007</v>
+      </c>
+      <c r="I26">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>1620</v>
+      </c>
+      <c r="D27">
+        <v>810</v>
+      </c>
+      <c r="E27">
+        <f>D27*E1</f>
+        <v>230.85</v>
+      </c>
+      <c r="F27">
+        <f>E27+50</f>
+        <v>280.85000000000002</v>
+      </c>
+      <c r="H27" s="5">
+        <f>D27*H1</f>
+        <v>226.8</v>
+      </c>
+      <c r="I27">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>1944</v>
+      </c>
+      <c r="D28">
+        <v>1360</v>
+      </c>
+      <c r="E28">
+        <f>D28*E1</f>
+        <v>387.59999999999997</v>
+      </c>
+      <c r="F28">
+        <f>E28+50</f>
+        <v>437.59999999999997</v>
+      </c>
+      <c r="H28" s="5">
+        <f>D28*H1</f>
+        <v>380.8</v>
+      </c>
+      <c r="I28">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>1404</v>
+      </c>
+      <c r="D29">
+        <v>982</v>
+      </c>
+      <c r="E29">
+        <f>D29*E1</f>
+        <v>279.86999999999995</v>
+      </c>
+      <c r="F29">
+        <f>E29+50</f>
+        <v>329.86999999999995</v>
+      </c>
+      <c r="H29" s="5">
+        <f>D29*H1</f>
+        <v>274.96000000000004</v>
+      </c>
+      <c r="I29">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
         <v>2484</v>
       </c>
-      <c r="C20">
+      <c r="D30">
         <v>1987</v>
       </c>
-      <c r="D20">
-        <f>C20*D1</f>
+      <c r="E30">
+        <f>D30*E1</f>
         <v>566.29499999999996</v>
       </c>
-      <c r="E20">
-        <f>D20+50</f>
+      <c r="F30">
+        <f>E30+50</f>
         <v>616.29499999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
+      <c r="H30" s="5">
+        <f>D30*H1</f>
+        <v>556.36</v>
+      </c>
+      <c r="I30">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31">
+        <v>2484</v>
+      </c>
+      <c r="D31">
+        <v>1987</v>
+      </c>
+      <c r="E31">
+        <f>D31*E1</f>
+        <v>566.29499999999996</v>
+      </c>
+      <c r="F31">
+        <f>E31+50</f>
+        <v>616.29499999999996</v>
+      </c>
+      <c r="H31" s="5">
+        <f>D31*H1</f>
+        <v>556.36</v>
+      </c>
+      <c r="I31">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <v>2484</v>
+      </c>
+      <c r="D32">
+        <v>1987</v>
+      </c>
+      <c r="E32">
+        <f>D32*E1</f>
+        <v>566.29499999999996</v>
+      </c>
+      <c r="F32">
+        <f>E32+50</f>
+        <v>616.29499999999996</v>
+      </c>
+      <c r="H32" s="5">
+        <f>D32*H1</f>
+        <v>556.36</v>
+      </c>
+      <c r="I32">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33">
         <v>4212</v>
       </c>
-      <c r="C21">
+      <c r="D33">
         <v>2948</v>
       </c>
-      <c r="D21">
-        <f>C21*D1</f>
+      <c r="E33">
+        <f>D33*E1</f>
         <v>840.18</v>
       </c>
-      <c r="E21">
-        <f>D21+50</f>
+      <c r="F33">
+        <f>E33+50</f>
         <v>890.18</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>2700</v>
-      </c>
-      <c r="C22">
-        <v>2160</v>
-      </c>
-      <c r="D22">
-        <f>C22*D1</f>
-        <v>615.59999999999991</v>
-      </c>
-      <c r="E22">
-        <f>D22+50</f>
-        <v>665.59999999999991</v>
+      <c r="H33" s="5">
+        <f>D33*H1</f>
+        <v>825.44</v>
+      </c>
+      <c r="I33">
+        <v>930</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -972,15 +1589,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -994,7 +1614,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
       <c r="B2">
         <v>756</v>
       </c>
@@ -1030,12 +1653,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1071,4 +1694,124 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8">
+        <v>43276</v>
+      </c>
+      <c r="C2">
+        <v>2484</v>
+      </c>
+      <c r="D2">
+        <v>1242</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>D2*F2</f>
+        <v>1242</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8">
+        <v>43276</v>
+      </c>
+      <c r="C3">
+        <v>2700</v>
+      </c>
+      <c r="D3">
+        <v>2160</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>D3*F3</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19">
+        <f>SUM(G2:G18)</f>
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20">
+        <v>6000</v>
+      </c>
+      <c r="G20">
+        <f>F20-G19</f>
+        <v>2598</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>